--- a/result.xlsx
+++ b/result.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8710EF-665D-472C-9BE7-B042957A566D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400F6AF9-CA07-4CA3-8602-B2A1532B8569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="1950" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4088" yWindow="2085" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>Waescher_TEST0005</t>
   </si>
@@ -215,6 +215,154 @@
   </si>
   <si>
     <t>598ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟退火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>337ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>412ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>323ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>345ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>351ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>362ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>288ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>434ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>307ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>388ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>397ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>314ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>329ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>383ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁忌搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5336ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7433ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7074ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7725ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8238ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8807ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8186ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11132ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10098ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9509ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9355ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10600ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7744ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7505ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7809ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6851ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11556ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +432,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -639,327 +787,565 @@
     <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="F3" s="2">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="2">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="F4" s="2">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="F5" s="2">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="2">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="F6" s="2">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="F7" s="2">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="2">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="F8" s="2">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="2">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="F9" s="2">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="2">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="F10" s="2">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="F11" s="2">
+        <v>21</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="2">
+        <v>21</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>21</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="F12" s="2">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="2">
+        <v>21</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="F13" s="2">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="2">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="F14" s="2">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="2">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="F15" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="2">
+        <v>14</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>25</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="F16" s="2">
+        <v>25</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="2">
+        <v>25</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>17</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="F17" s="2">
+        <v>17</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="2">
+        <v>17</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="F18" s="2">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="2">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="F19" s="2">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="2">
+        <v>13</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
